--- a/data/trans_camb/P19_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19_2_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-0,97</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-1,71</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,54; -0,01</t>
+          <t>-1,95; 10,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 6,22</t>
+          <t>-8,46; 5,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 2,92</t>
+          <t>-3,76; 8,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 5,36</t>
+          <t>-4,89; 9,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 5,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 2,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 3,77</t>
+          <t>-7,57; 6,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 7,97</t>
+          <t>-5,54; 6,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 2,02</t>
+          <t>-5,68; 6,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 2,86</t>
+          <t>-11,07; 3,53</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 2,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 5,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-3,54; 6,11</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-5,23; 3,76</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-3,53; 5,23</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-7,01; 3,06</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-64,62%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>36,62%</t>
+          <t>-2,35%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,37%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,6%</t>
+          <t>-0,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-17,16%</t>
+          <t>-0,54%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>-3,71%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-8,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>28,21%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-1,05%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-1,85%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-90,0; 47,11</t>
+          <t>-2,02; 11,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,75; 202,24</t>
+          <t>-8,65; 6,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-59,65; 89,76</t>
+          <t>-3,84; 9,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,21; 162,1</t>
+          <t>-5,06; 10,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,48; 69,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,93; 43,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,39; 53,32</t>
+          <t>-7,97; 7,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 100,74</t>
+          <t>-5,85; 7,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-47,95; 33,64</t>
+          <t>-6,0; 7,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-36,17; 45,87</t>
+          <t>-11,73; 4,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-40,3; 36,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 88,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 6,85</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-5,48; 4,25</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-3,69; 5,95</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-7,46; 3,34</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,14</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,16</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,98</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,25; -0,61</t>
+          <t>-0,32; 6,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,95; -0,3</t>
+          <t>-0,94; 6,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 4,33</t>
+          <t>-4,71; 3,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 4,86</t>
+          <t>-4,67; 3,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 0,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,46; -1,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 0,37</t>
+          <t>-1,87; 9,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 5,27</t>
+          <t>1,32; 11,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,77; -0,53</t>
+          <t>0,27; 9,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; -1,71</t>
+          <t>0,87; 11,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 0,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 3,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,15; 7,02</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 7,59</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-1,3; 5,62</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 6,47</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-46,05%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-41,45%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>-0,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>-0,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-26,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-42,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-26,68%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-33,77%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-42,39%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-15,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3,46%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>4,58%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-69,26; -10,88</t>
+          <t>-0,33; 7,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-65,57; -4,06</t>
+          <t>-0,98; 6,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-34,3; 82,99</t>
+          <t>-5,02; 3,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 98,88</t>
+          <t>-4,87; 4,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,89; 7,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-61,58; -17,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,52; 4,02</t>
+          <t>-2,03; 11,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,79; 58,0</t>
+          <t>1,47; 13,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-50,64; -6,94</t>
+          <t>0,29; 11,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-57,73; -23,23</t>
+          <t>0,95; 14,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-37,75; 12,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 51,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-0,16; 8,02</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1,36; 8,68</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-1,4; 6,39</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-0,57; 7,32</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>4,31</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3,27</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1,41</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 1,6</t>
+          <t>-3,64; 5,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 4,39</t>
+          <t>-1,99; 5,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 6,35</t>
+          <t>-6,88; 2,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 4,34</t>
+          <t>-4,9; 3,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,68; -1,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 0,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 1,53</t>
+          <t>1,27; 11,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 2,4</t>
+          <t>0,66; 10,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,36; -0,69</t>
+          <t>-0,39; 9,0</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 1,35</t>
+          <t>-1,72; 8,57</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 3,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 1,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 6,71</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 6,92</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-2,0; 4,68</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 4,76</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-32,36%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>45,09%</t>
+          <t>-2,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>-0,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-47,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-30,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-21,54%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-18,9%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-42,36%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-17,58%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>-10,19%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>3,72%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1,48%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1,54%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-69,5; 73,01</t>
+          <t>-3,77; 5,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,58; 143,24</t>
+          <t>-2,05; 5,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-24,65; 200,73</t>
+          <t>-7,06; 2,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,25; 133,58</t>
+          <t>-5,05; 3,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-68,73; -13,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,22; 1,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-48,94; 21,51</t>
+          <t>1,38; 13,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-52,09; 33,04</t>
+          <t>0,72; 11,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-63,49; -11,11</t>
+          <t>-0,41; 10,73</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-42,88; 24,21</t>
+          <t>-1,85; 10,12</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 50,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-44,97; 30,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 7,54</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>0,54; 7,78</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 5,29</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-1,86; 5,28</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-2,02</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,19</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,26; -0,89</t>
+          <t>0,54; 4,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 0,97</t>
+          <t>-3,7; 3,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 3,15</t>
+          <t>-4,52; 2,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,89; -0,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,29; -1,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 0,16</t>
+          <t>-1,37; 4,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 3,84</t>
+          <t>-1,27; 5,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,12; -1,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-3,38; -0,68</t>
+          <t>-5,93; 2,17</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 0,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 2,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 4,01</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 3,53</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 1,63</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-46,0%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-13,7%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>-0,85%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-26,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-32,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-21,09%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-33,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-25,83%</t>
+          <t>-1,45%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-9,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>2,36%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1,48%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-1,04%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-66,63; -19,89</t>
+          <t>0,58; 5,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-40,75; 21,63</t>
+          <t>-3,89; 3,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,93; 58,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 68,63</t>
+          <t>-4,73; 2,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-43,43; -4,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-47,26; -12,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-36,86; 1,82</t>
+          <t>-1,49; 5,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 43,93</t>
+          <t>-1,37; 6,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-48,28; -18,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-39,26; -9,46</t>
+          <t>-6,45; 2,39</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-24,97; 11,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 40,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 4,37</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 3,87</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 1,77</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2,34</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,44</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,13</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2,39</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 3,86</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 2,48</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-3,09; 1,23</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 1,66</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 4,57</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1,18; 5,11</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 4,26</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 3,49</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 3,66</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 3,47</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-0,83; 2,13</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 1,72</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-0,91%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-0,45%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2,71%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3,52%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0,73; 4,12</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-0,83; 2,65</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-3,25; 1,31</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-2,33; 1,77</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 5,13</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 5,8</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 4,79</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 3,92</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 3,99</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>0,79; 3,78</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 2,32</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 1,89</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
